--- a/inst/extdata/OWC_data_fromSup.xlsx
+++ b/inst/extdata/OWC_data_fromSup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LADData\toxEval\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4CB01-2789-46A0-B9E4-5521F6D9F7B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785C260-6ABD-46E4-9D79-911171415091}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13173" yWindow="1302" windowWidth="18031" windowHeight="13511" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1265" windowWidth="15778" windowHeight="9116" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11746" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11816" uniqueCount="416">
   <si>
     <t>SiteID</t>
   </si>
@@ -1071,6 +1071,216 @@
   <si>
     <t>TOX21_AR_LUC_MDAKB2_Agonist_Counterscreen</t>
   </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>2-tert-Butyl-4-methoxyphenol</t>
+  </si>
+  <si>
+    <t>5-Methyl-1H-benzotriazole</t>
+  </si>
+  <si>
+    <t>Bisphenol A</t>
+  </si>
+  <si>
+    <t>Anthraquinone</t>
+  </si>
+  <si>
+    <t>2,2',4,4'-Tetrabromodiphenyl ether</t>
+  </si>
+  <si>
+    <t>Tributyl phosphate</t>
+  </si>
+  <si>
+    <t>Tris(2-butoxyethyl) phosphate</t>
+  </si>
+  <si>
+    <t>Tris(1,3-dichloro-2-propyl) phosphate</t>
+  </si>
+  <si>
+    <t>Anthracene</t>
+  </si>
+  <si>
+    <t>Benzo(a)pyrene</t>
+  </si>
+  <si>
+    <t>Fluoranthene</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>Phenanthrene</t>
+  </si>
+  <si>
+    <t>Pyrene</t>
+  </si>
+  <si>
+    <t>Di(2-ethylhexyl) phthalate</t>
+  </si>
+  <si>
+    <t>Diethyl phthalate</t>
+  </si>
+  <si>
+    <t>Triethyl citrate</t>
+  </si>
+  <si>
+    <t>Triphenyl phosphate</t>
+  </si>
+  <si>
+    <t>Tris(2-chloroethyl) phosphate</t>
+  </si>
+  <si>
+    <t>1-Methylnaphthalene</t>
+  </si>
+  <si>
+    <t>2,6-Dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>2-Methylnaphthalene</t>
+  </si>
+  <si>
+    <t>Cumene</t>
+  </si>
+  <si>
+    <t>Isophorone</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t>Atrazine</t>
+  </si>
+  <si>
+    <t>Bromacil</t>
+  </si>
+  <si>
+    <t>3,4-Dichlorophenyl isocyanate</t>
+  </si>
+  <si>
+    <t>Metalaxyl</t>
+  </si>
+  <si>
+    <t>Metolachlor</t>
+  </si>
+  <si>
+    <t>Pentachlorophenol</t>
+  </si>
+  <si>
+    <t>Prometon</t>
+  </si>
+  <si>
+    <t>Carbaryl</t>
+  </si>
+  <si>
+    <t>Carbazole</t>
+  </si>
+  <si>
+    <t>Chlorpyrifos</t>
+  </si>
+  <si>
+    <t>Diazinon</t>
+  </si>
+  <si>
+    <t>Dichlorvos</t>
+  </si>
+  <si>
+    <t>DEET</t>
+  </si>
+  <si>
+    <t>p-Cresol</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Triclosan</t>
+  </si>
+  <si>
+    <t>4-Cumylphenol</t>
+  </si>
+  <si>
+    <t>4-Nonylphenol, branched</t>
+  </si>
+  <si>
+    <t>4-Octylphenol</t>
+  </si>
+  <si>
+    <t>4-(1,1,3,3-Tetramethylbutyl)phenol</t>
+  </si>
+  <si>
+    <t>3-Methylindole</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>6-Acetyl-1,1,2,4,4,7-hexamethyltetralin</t>
+  </si>
+  <si>
+    <t>Benzophenone</t>
+  </si>
+  <si>
+    <t>Camphor</t>
+  </si>
+  <si>
+    <t>D-Limonene</t>
+  </si>
+  <si>
+    <t>Indole</t>
+  </si>
+  <si>
+    <t>Isoborneol</t>
+  </si>
+  <si>
+    <t>Isoquinoline</t>
+  </si>
+  <si>
+    <t>Caffeine</t>
+  </si>
+  <si>
+    <t>Cotinine</t>
+  </si>
+  <si>
+    <t>dl-Menthol</t>
+  </si>
+  <si>
+    <t>beta-Sitosterol</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>1,4-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Methyl salicylate</t>
+  </si>
+  <si>
+    <t>Bromoform</t>
+  </si>
+  <si>
+    <t>4-tert-Octylphenol monoethoxylate</t>
+  </si>
+  <si>
+    <t>Nonylphenol diethoxylate</t>
+  </si>
+  <si>
+    <t>4-Nonyl Phenol Monoethoxylate</t>
+  </si>
+  <si>
+    <t>4-tert-Octylphenol Diethoxylate</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8-Hexahydro</t>
+  </si>
+  <si>
+    <t>Coprostan-3-ol</t>
+  </si>
+  <si>
+    <t>Stigmastanol</t>
+  </si>
 </sst>
 </file>
 
@@ -80225,10 +80435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -80238,564 +80448,774 @@
     <col min="3" max="16384" width="35" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>257</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>257</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>259</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>259</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>259</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>259</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>262</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -80808,7 +81228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
